--- a/output/param_results.xlsx
+++ b/output/param_results.xlsx
@@ -25,7 +25,7 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>TeRCEx</t>
+    <t>ETeR-X</t>
   </si>
   <si>
     <t>USEM</t>

--- a/output/param_results.xlsx
+++ b/output/param_results.xlsx
@@ -25,13 +25,13 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>ETeR-X</t>
-  </si>
-  <si>
-    <t>USEM</t>
+    <t>TRecX</t>
   </si>
   <si>
     <t>BERT</t>
+  </si>
+  <si>
+    <t>AITRecX</t>
   </si>
   <si>
     <t>Set</t>
@@ -482,10 +482,10 @@
         <v>1451536</v>
       </c>
       <c r="E4">
-        <v>69454596</v>
+        <v>4518532</v>
       </c>
       <c r="F4">
-        <v>4518532</v>
+        <v>2784256</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -500,10 +500,10 @@
         <v>523146</v>
       </c>
       <c r="E5">
-        <v>69289410</v>
+        <v>4476994</v>
       </c>
       <c r="F5">
-        <v>4476994</v>
+        <v>1768576</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -520,10 +520,10 @@
         <v>85140</v>
       </c>
       <c r="E6">
-        <v>68971350</v>
+        <v>4397014</v>
       </c>
       <c r="F6">
-        <v>4397014</v>
+        <v>1752832</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -538,10 +538,10 @@
         <v>166294</v>
       </c>
       <c r="E7">
-        <v>68995974</v>
+        <v>4403206</v>
       </c>
       <c r="F7">
-        <v>4403206</v>
+        <v>2171392</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -556,10 +556,10 @@
         <v>70500</v>
       </c>
       <c r="E8">
-        <v>68965707</v>
+        <v>4395595</v>
       </c>
       <c r="F8">
-        <v>4395595</v>
+        <v>1782400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -574,10 +574,10 @@
         <v>41392</v>
       </c>
       <c r="E9">
-        <v>68953908</v>
+        <v>4392628</v>
       </c>
       <c r="F9">
-        <v>4392628</v>
+        <v>1489024</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,10 +592,10 @@
         <v>45927</v>
       </c>
       <c r="E10">
-        <v>68959551</v>
+        <v>4394047</v>
       </c>
       <c r="F10">
-        <v>4394047</v>
+        <v>1392256</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,10 +612,10 @@
         <v>95360</v>
       </c>
       <c r="E11">
-        <v>69003669</v>
+        <v>4405141</v>
       </c>
       <c r="F11">
-        <v>4405141</v>
+        <v>1247104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -630,10 +630,10 @@
         <v>2780166</v>
       </c>
       <c r="E12">
-        <v>69605418</v>
+        <v>4556458</v>
       </c>
       <c r="F12">
-        <v>4556458</v>
+        <v>4160512</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -648,10 +648,10 @@
         <v>4098072</v>
       </c>
       <c r="E13">
-        <v>69765474</v>
+        <v>4596706</v>
       </c>
       <c r="F13">
-        <v>4596706</v>
+        <v>5092096</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,10 +666,10 @@
         <v>5808110</v>
       </c>
       <c r="E14">
-        <v>69945537</v>
+        <v>4641985</v>
       </c>
       <c r="F14">
-        <v>4641985</v>
+        <v>5659264</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -684,10 +684,10 @@
         <v>8749230</v>
       </c>
       <c r="E15">
-        <v>70679127</v>
+        <v>4826455</v>
       </c>
       <c r="F15">
-        <v>4826455</v>
+        <v>7112320</v>
       </c>
     </row>
   </sheetData>
